--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Proc-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Proc-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Proc</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.270928</v>
       </c>
       <c r="I2">
-        <v>0.5540744497662452</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5540744497662453</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.37835899999999</v>
+        <v>58.51417433333334</v>
       </c>
       <c r="N2">
-        <v>154.135077</v>
+        <v>175.542523</v>
       </c>
       <c r="O2">
-        <v>0.8798212945621328</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="P2">
-        <v>0.879821294562133</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="Q2">
-        <v>4.639945349050666</v>
+        <v>5.284376074593778</v>
       </c>
       <c r="R2">
-        <v>41.75950814145599</v>
+        <v>47.55938467134401</v>
       </c>
       <c r="S2">
-        <v>0.4874864996771393</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="T2">
-        <v>0.4874864996771395</v>
+        <v>0.9208013000516164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.270928</v>
       </c>
       <c r="I3">
-        <v>0.5540744497662452</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5540744497662453</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>12.625225</v>
       </c>
       <c r="O3">
-        <v>0.07206628121150001</v>
+        <v>0.06622511397676659</v>
       </c>
       <c r="P3">
-        <v>0.07206628121150001</v>
+        <v>0.06622511397676657</v>
       </c>
       <c r="Q3">
         <v>0.3800585509777779</v>
@@ -638,10 +638,10 @@
         <v>3.4205269588</v>
       </c>
       <c r="S3">
-        <v>0.03993008510896136</v>
+        <v>0.06622511397676659</v>
       </c>
       <c r="T3">
-        <v>0.03993008510896137</v>
+        <v>0.06622511397676657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +670,40 @@
         <v>0.270928</v>
       </c>
       <c r="I4">
-        <v>0.5540744497662452</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5540744497662453</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.568043</v>
+        <v>0.1957283333333334</v>
       </c>
       <c r="N4">
-        <v>7.704129</v>
+        <v>0.5871850000000001</v>
       </c>
       <c r="O4">
-        <v>0.04397608177309095</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="P4">
-        <v>0.04397608177309097</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="Q4">
-        <v>0.2319182513013333</v>
+        <v>0.01767609529777778</v>
       </c>
       <c r="R4">
-        <v>2.087264261712</v>
+        <v>0.15908485768</v>
       </c>
       <c r="S4">
-        <v>0.02436602331130077</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="T4">
-        <v>0.02436602331130079</v>
+        <v>0.003080055488155473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,54 +732,54 @@
         <v>0.270928</v>
       </c>
       <c r="I5">
-        <v>0.5540744497662452</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5540744497662453</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2415473333333333</v>
+        <v>0.6056613333333333</v>
       </c>
       <c r="N5">
-        <v>0.724642</v>
+        <v>1.816984</v>
       </c>
       <c r="O5">
-        <v>0.004136342453276182</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="P5">
-        <v>0.004136342453276183</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="Q5">
-        <v>0.02181397864177778</v>
+        <v>0.05469687123911111</v>
       </c>
       <c r="R5">
-        <v>0.196325807776</v>
+        <v>0.492271841152</v>
       </c>
       <c r="S5">
-        <v>0.002291841668843761</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="T5">
-        <v>0.002291841668843762</v>
+        <v>0.00953091707228673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,480 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03446266666666667</v>
+        <v>0.09030933333333334</v>
       </c>
       <c r="H6">
-        <v>0.103388</v>
+        <v>0.270928</v>
       </c>
       <c r="I6">
-        <v>0.2114386449995296</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.2114386449995297</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>51.37835899999999</v>
+        <v>0.023043</v>
       </c>
       <c r="N6">
-        <v>154.135077</v>
+        <v>0.069129</v>
       </c>
       <c r="O6">
-        <v>0.8798212945621328</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="P6">
-        <v>0.879821294562133</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="Q6">
-        <v>1.770635260097333</v>
+        <v>0.002080997968</v>
       </c>
       <c r="R6">
-        <v>15.935717340876</v>
+        <v>0.018728981712</v>
       </c>
       <c r="S6">
-        <v>0.1860282223639494</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="T6">
-        <v>0.1860282223639494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.03446266666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.103388</v>
-      </c>
-      <c r="I7">
-        <v>0.2114386449995296</v>
-      </c>
-      <c r="J7">
-        <v>0.2114386449995297</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.208408333333334</v>
-      </c>
-      <c r="N7">
-        <v>12.625225</v>
-      </c>
-      <c r="O7">
-        <v>0.07206628121150001</v>
-      </c>
-      <c r="P7">
-        <v>0.07206628121150001</v>
-      </c>
-      <c r="Q7">
-        <v>0.1450329735888889</v>
-      </c>
-      <c r="R7">
-        <v>1.3052967623</v>
-      </c>
-      <c r="S7">
-        <v>0.01523759684951462</v>
-      </c>
-      <c r="T7">
-        <v>0.01523759684951462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.03446266666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.103388</v>
-      </c>
-      <c r="I8">
-        <v>0.2114386449995296</v>
-      </c>
-      <c r="J8">
-        <v>0.2114386449995297</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.568043</v>
-      </c>
-      <c r="N8">
-        <v>7.704129</v>
-      </c>
-      <c r="O8">
-        <v>0.04397608177309095</v>
-      </c>
-      <c r="P8">
-        <v>0.04397608177309097</v>
-      </c>
-      <c r="Q8">
-        <v>0.08850160989466667</v>
-      </c>
-      <c r="R8">
-        <v>0.7965144890520001</v>
-      </c>
-      <c r="S8">
-        <v>0.009298243142490864</v>
-      </c>
-      <c r="T8">
-        <v>0.009298243142490868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03446266666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.103388</v>
-      </c>
-      <c r="I9">
-        <v>0.2114386449995296</v>
-      </c>
-      <c r="J9">
-        <v>0.2114386449995297</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.2415473333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.724642</v>
-      </c>
-      <c r="O9">
-        <v>0.004136342453276182</v>
-      </c>
-      <c r="P9">
-        <v>0.004136342453276183</v>
-      </c>
-      <c r="Q9">
-        <v>0.008324365232888889</v>
-      </c>
-      <c r="R9">
-        <v>0.074919287096</v>
-      </c>
-      <c r="S9">
-        <v>0.0008745826435747461</v>
-      </c>
-      <c r="T9">
-        <v>0.0008745826435747464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.03821933333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.114658</v>
-      </c>
-      <c r="I10">
-        <v>0.2344869052342251</v>
-      </c>
-      <c r="J10">
-        <v>0.2344869052342251</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>51.37835899999999</v>
-      </c>
-      <c r="N10">
-        <v>154.135077</v>
-      </c>
-      <c r="O10">
-        <v>0.8798212945621328</v>
-      </c>
-      <c r="P10">
-        <v>0.879821294562133</v>
-      </c>
-      <c r="Q10">
-        <v>1.963646628740666</v>
-      </c>
-      <c r="R10">
-        <v>17.672819658666</v>
-      </c>
-      <c r="S10">
-        <v>0.2063065725210441</v>
-      </c>
-      <c r="T10">
-        <v>0.2063065725210441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03821933333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.114658</v>
-      </c>
-      <c r="I11">
-        <v>0.2344869052342251</v>
-      </c>
-      <c r="J11">
-        <v>0.2344869052342251</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.208408333333334</v>
-      </c>
-      <c r="N11">
-        <v>12.625225</v>
-      </c>
-      <c r="O11">
-        <v>0.07206628121150001</v>
-      </c>
-      <c r="P11">
-        <v>0.07206628121150001</v>
-      </c>
-      <c r="Q11">
-        <v>0.1608425608944445</v>
-      </c>
-      <c r="R11">
-        <v>1.44758304805</v>
-      </c>
-      <c r="S11">
-        <v>0.01689859925302402</v>
-      </c>
-      <c r="T11">
-        <v>0.01689859925302402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03821933333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.114658</v>
-      </c>
-      <c r="I12">
-        <v>0.2344869052342251</v>
-      </c>
-      <c r="J12">
-        <v>0.2344869052342251</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.568043</v>
-      </c>
-      <c r="N12">
-        <v>7.704129</v>
-      </c>
-      <c r="O12">
-        <v>0.04397608177309095</v>
-      </c>
-      <c r="P12">
-        <v>0.04397608177309097</v>
-      </c>
-      <c r="Q12">
-        <v>0.09814889143133333</v>
-      </c>
-      <c r="R12">
-        <v>0.883340022882</v>
-      </c>
-      <c r="S12">
-        <v>0.01031181531929931</v>
-      </c>
-      <c r="T12">
-        <v>0.01031181531929932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03821933333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.114658</v>
-      </c>
-      <c r="I13">
-        <v>0.2344869052342251</v>
-      </c>
-      <c r="J13">
-        <v>0.2344869052342251</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2415473333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.724642</v>
-      </c>
-      <c r="O13">
-        <v>0.004136342453276182</v>
-      </c>
-      <c r="P13">
-        <v>0.004136342453276183</v>
-      </c>
-      <c r="Q13">
-        <v>0.009231778048444444</v>
-      </c>
-      <c r="R13">
-        <v>0.08308600243599999</v>
-      </c>
-      <c r="S13">
-        <v>0.0009699181408576742</v>
-      </c>
-      <c r="T13">
-        <v>0.0009699181408576745</v>
+        <v>0.0003626134111748421</v>
       </c>
     </row>
   </sheetData>
